--- a/src/main/resources/ExcelData/TestCase.xlsx
+++ b/src/main/resources/ExcelData/TestCase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD978A0C-326F-4CBF-9176-6C196936E03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46A339-64D5-4482-8F07-21B2BDDD0986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1740" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Keyword</t>
   </si>
@@ -32,33 +32,21 @@
     <t>GOTOURL</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>ObjectType</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>CLICK</t>
   </si>
   <si>
-    <t>loginButton</t>
-  </si>
-  <si>
     <t>TestCase</t>
   </si>
   <si>
     <t>Login In Application</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>Sample Test Case</t>
   </si>
   <si>
@@ -71,10 +59,10 @@
     <t>button</t>
   </si>
   <si>
-    <t>cssSelector</t>
-  </si>
-  <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -450,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -476,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -484,7 +472,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -499,7 +487,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -508,33 +496,33 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -548,8 +536,8 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,46 +546,34 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{89FB0CC0-46F2-4DA0-9E14-26ABE0871591}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{D45B7DAC-E004-44CE-8ADC-929F61051C23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
